--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -15,6 +15,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OperatingLog" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Issues" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ServiceLog" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OperatingHours" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClosedDates" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +458,21 @@
           <t>name</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -465,6 +483,21 @@
           <t>Alex Brown</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0400100000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alex@example.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -475,6 +508,21 @@
           <t>Ben Carter</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0400100001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ben@example.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -485,6 +533,21 @@
           <t>Charlie Davis</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0400100002</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>charlie@example.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -493,6 +556,21 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>Daniel Evans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0400100003</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>daniel@example.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14 Workshop Rd, Newcastle NSW 2300</t>
         </is>
       </c>
     </row>
@@ -505,6 +583,21 @@
           <t>Ethan Foster</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0400100004</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ethan@example.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -515,6 +608,21 @@
           <t>Finn Green</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0400100005</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>finn@example.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -525,6 +633,21 @@
           <t>George Harris</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0400100006</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>george@example.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -535,6 +658,21 @@
           <t>Harry Irving</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0400100007</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>harry@example.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -545,6 +683,21 @@
           <t>Isaac Johnson</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0400100008</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>isaac@example.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -555,6 +708,21 @@
           <t>Jack Kelly</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0400100009</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>jack@example.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -565,6 +733,21 @@
           <t>Kai Lewis</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0400100010</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kai@example.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -575,6 +758,21 @@
           <t>Liam Mitchell</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0400100011</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>liam@example.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -585,6 +783,21 @@
           <t>Mason Nolan</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0400100012</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>mason@example.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -595,6 +808,21 @@
           <t>Noah Owens</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0400100013</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>noah@example.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -605,6 +833,21 @@
           <t>Oscar Parker</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0400100014</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>oscar@example.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -615,6 +858,21 @@
           <t>Peter Quinn</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0400100015</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>peter@example.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -625,6 +883,21 @@
           <t>Quentin Ross</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0400100016</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>quentin@example.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -635,6 +908,21 @@
           <t>Riley Smith</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0400100017</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>riley@example.com</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -645,6 +933,21 @@
           <t>Samuel Turner</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0400100018</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>samuel@example.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -655,6 +958,21 @@
           <t>Thomas Underwood</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0400100019</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>thomas@example.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -665,6 +983,21 @@
           <t>Umar Vance</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0400100020</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>umar@example.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -675,6 +1008,21 @@
           <t>Victor White</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0400100021</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>victor@example.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -685,6 +1033,21 @@
           <t>William Xu</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0400100022</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>william@example.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -695,6 +1058,21 @@
           <t>Yusuf Young</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0400100023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>yusuf@example.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -703,6 +1081,107 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>Zachary Adams</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0400100024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>zachary@example.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>35 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>admin_password</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nesnob2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>show_contact_on_bookings</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2586,7 +3065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,6 +3104,11 @@
           <t>status</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2647,6 +3131,11 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2669,6 +3158,11 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2691,6 +3185,11 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2711,6 +3210,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Usage</t>
         </is>
       </c>
     </row>
@@ -2733,6 +3237,38 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45914.54166666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45914.60416666666</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
         </is>
       </c>
     </row>
@@ -3122,4 +3658,211 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>weekday</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>is_open</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -18,6 +18,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OperatingHours" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClosedDates" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AssistanceRequests" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaintenanceRequests" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +475,16 @@
           <t>address</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,22 +492,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alex Brown</t>
+          <t>John Benson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0400100000</t>
+          <t>0400001000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>alex@example.com</t>
+          <t>john@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11 Workshop Rd, Newcastle NSW 2300</t>
+          <t>10 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nesnob2025</t>
         </is>
       </c>
     </row>
@@ -505,24 +527,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ben Carter</t>
+          <t>Alex Brown</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0400100001</t>
+          <t>0400001001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ben@example.com</t>
+          <t>alex@example.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>11 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -530,24 +558,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charlie Davis</t>
+          <t>Ben Carter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0400100002</t>
+          <t>0400001002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>charlie@example.com</t>
+          <t>ben@example.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>12 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>superuser</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -555,24 +589,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniel Evans</t>
+          <t>Charlie Davis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0400100003</t>
+          <t>0400001003</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>daniel@example.com</t>
+          <t>charlie@example.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>13 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -580,24 +620,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ethan Foster</t>
+          <t>Daniel Evans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0400100004</t>
+          <t>0400001004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ethan@example.com</t>
+          <t>daniel@example.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>14 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>superuser</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -605,24 +651,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Finn Green</t>
+          <t>Ethan Foster</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0400100005</t>
+          <t>0400001005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>finn@example.com</t>
+          <t>ethan@example.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>15 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,24 +682,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>George Harris</t>
+          <t>Finn Green</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0400100006</t>
+          <t>0400001006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>george@example.com</t>
+          <t>finn@example.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>16 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>superuser</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -655,24 +713,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Harry Irving</t>
+          <t>George Harris</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0400100007</t>
+          <t>0400001007</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>harry@example.com</t>
+          <t>george@example.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>17 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -680,24 +744,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isaac Johnson</t>
+          <t>Harry Irving</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0400100008</t>
+          <t>0400001008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>isaac@example.com</t>
+          <t>harry@example.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>18 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -705,24 +775,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jack Kelly</t>
+          <t>Isaac Johnson</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0400100009</t>
+          <t>0400001009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jack@example.com</t>
+          <t>isaac@example.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>19 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -730,24 +806,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kai Lewis</t>
+          <t>Jack Kelly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0400100010</t>
+          <t>0400001010</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kai@example.com</t>
+          <t>jack@example.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>20 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -755,24 +837,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liam Mitchell</t>
+          <t>Kai Lewis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0400100011</t>
+          <t>0400001011</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>liam@example.com</t>
+          <t>kai@example.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>21 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -780,24 +868,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mason Nolan</t>
+          <t>Liam Mitchell</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0400100012</t>
+          <t>0400001012</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>mason@example.com</t>
+          <t>liam@example.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>22 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -805,24 +899,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Noah Owens</t>
+          <t>Mason Nolan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0400100013</t>
+          <t>0400001013</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>noah@example.com</t>
+          <t>mason@example.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>23 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -830,24 +930,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oscar Parker</t>
+          <t>Noah Owens</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0400100014</t>
+          <t>0400001014</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>oscar@example.com</t>
+          <t>noah@example.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>24 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -855,24 +961,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Peter Quinn</t>
+          <t>Oscar Parker</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0400100015</t>
+          <t>0400001015</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>peter@example.com</t>
+          <t>oscar@example.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>26 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>25 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -880,24 +992,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quentin Ross</t>
+          <t>Peter Quinn</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0400100016</t>
+          <t>0400001016</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>quentin@example.com</t>
+          <t>peter@example.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>26 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -905,24 +1023,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Quentin Ross</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0400100017</t>
+          <t>0400001017</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>riley@example.com</t>
+          <t>quentin@example.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>28 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>27 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -930,24 +1054,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Samuel Turner</t>
+          <t>Riley Smith</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0400100018</t>
+          <t>0400001018</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>samuel@example.com</t>
+          <t>riley@example.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>29 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>28 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -955,24 +1085,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Thomas Underwood</t>
+          <t>Samuel Turner</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0400100019</t>
+          <t>0400001019</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>thomas@example.com</t>
+          <t>samuel@example.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>30 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>29 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -980,24 +1116,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Umar Vance</t>
+          <t>Thomas Underwood</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0400100020</t>
+          <t>0400001020</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>umar@example.com</t>
+          <t>thomas@example.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>31 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>30 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1005,24 +1147,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Victor White</t>
+          <t>Umar Vance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0400100021</t>
+          <t>0400001021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>victor@example.com</t>
+          <t>umar@example.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>31 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1030,24 +1178,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>William Xu</t>
+          <t>Victor White</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0400100022</t>
+          <t>0400001022</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>william@example.com</t>
+          <t>victor@example.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>33 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>32 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1055,24 +1209,30 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Yusuf Young</t>
+          <t>William Xu</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0400100023</t>
+          <t>0400001023</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>yusuf@example.com</t>
+          <t>william@example.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>34 Workshop Rd, Newcastle NSW 2300</t>
-        </is>
-      </c>
+          <t>33 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1080,24 +1240,61 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Yusuf Young</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0400001024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>yusuf@example.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34 Workshop Rd, Newcastle NSW 2300</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Zachary Adams</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0400100024</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0400001025</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>zachary@example.com</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>35 Workshop Rd, Newcastle NSW 2300</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1141,7 +1338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,24 +1361,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin_password</t>
+          <t>show_contact_on_bookings</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nesnob2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>show_contact_on_bookings</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>true</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>request_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>requester_user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>licence_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>request_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>machine_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45658</v>
@@ -1384,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45658</v>
@@ -1393,7 +1685,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1405,7 +1697,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>5</v>
@@ -1417,10 +1709,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>45658</v>
@@ -1429,10 +1721,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45658</v>
@@ -1441,10 +1733,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45658</v>
@@ -1453,10 +1745,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45658</v>
@@ -1465,10 +1757,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45658</v>
@@ -1477,10 +1769,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45658</v>
@@ -1489,10 +1781,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45658</v>
@@ -1501,10 +1793,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45658</v>
@@ -1513,10 +1805,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>45658</v>
@@ -1525,10 +1817,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>45658</v>
@@ -1537,10 +1829,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>45658</v>
@@ -1549,10 +1841,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>45658</v>
@@ -1561,10 +1853,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>45658</v>
@@ -1573,10 +1865,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45658</v>
@@ -1585,10 +1877,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45658</v>
@@ -1597,10 +1889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>45658</v>
@@ -1609,10 +1901,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>45658</v>
@@ -1621,10 +1913,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45658</v>
@@ -1633,10 +1925,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45658</v>
@@ -1645,10 +1937,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45658</v>
@@ -1657,10 +1949,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>45658</v>
@@ -1669,7 +1961,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -1681,10 +1973,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45658</v>
@@ -1693,10 +1985,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45658</v>
@@ -1705,10 +1997,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45658</v>
@@ -1717,10 +2009,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45658</v>
@@ -1729,10 +2021,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45658</v>
@@ -1741,10 +2033,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45658</v>
@@ -1753,10 +2045,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>45658</v>
@@ -1765,10 +2057,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>45658</v>
@@ -1777,10 +2069,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B36" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>45658</v>
@@ -1789,10 +2081,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>45658</v>
@@ -1801,10 +2093,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>45658</v>
@@ -1813,10 +2105,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>45658</v>
@@ -1825,10 +2117,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>45658</v>
@@ -1837,10 +2129,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>45658</v>
@@ -1849,10 +2141,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>45658</v>
@@ -1861,10 +2153,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>45658</v>
@@ -1873,10 +2165,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B44" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>45658</v>
@@ -1885,10 +2177,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B45" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>45658</v>
@@ -1897,10 +2189,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>45658</v>
@@ -1909,10 +2201,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>45658</v>
@@ -1921,10 +2213,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>45658</v>
@@ -1933,10 +2225,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>45658</v>
@@ -1945,10 +2237,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>45658</v>
@@ -1957,10 +2249,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>45658</v>
@@ -1969,10 +2261,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>45658</v>
@@ -1981,10 +2273,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>45658</v>
@@ -1993,10 +2285,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>45658</v>
@@ -2005,7 +2297,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
@@ -2017,10 +2309,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>45658</v>
@@ -2029,10 +2321,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>45658</v>
@@ -2041,10 +2333,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>45658</v>
@@ -2053,15 +2345,135 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
+        <v>21</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>22</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>22</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
         <v>25</v>
       </c>
-      <c r="B59" t="n">
-        <v>6</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>26</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>26</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2074,7 +2486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,35 +2547,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lathe #1</t>
+          <t>General Workshop Benches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lathe</t>
+          <t>General Use</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LA-1001</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
+          <t>GW-000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2172,7 +2582,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lathe #2</t>
+          <t>Lathe #1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2182,7 +2592,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LA-1002</t>
+          <t>LT-1001</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -2209,21 +2619,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lathe #3</t>
+          <t>Band Saw #1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lathe</t>
+          <t>Band Saw</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LA-1003</t>
+          <t>BS-1002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2246,21 +2656,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lathe #1</t>
+          <t>Laser Engraver #1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lathe</t>
+          <t>Laser Engraver</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LA-1004</t>
+          <t>LE-1003</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2268,790 +2678,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lathe #2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lathe</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LA-1005</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
         <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lathe #3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Lathe</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LA-1006</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Table Saw #1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Table Saw</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TA-1007</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table Saw #2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Table Saw</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TA-1008</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Table Saw #3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Table Saw</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TA-1009</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Planer/Thicknesser #1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Planer/Thicknesser</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PL-1010</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Planer/Thicknesser #2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Planer/Thicknesser</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PL-1011</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Band Saw #1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Band Saw</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>BA-1012</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Band Saw #2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Band Saw</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>BA-1013</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>50</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Drill Press #1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Drill Press</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DR-1014</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Drill Press #2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Drill Press</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DR-1015</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>50</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CNC Router #1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CNC Router</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CN-1016</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CNC Router #2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CNC Router</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>CN-1017</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CNC Router #3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CNC Router</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CN-1018</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Laser Engraver #1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Laser Engraver</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>LA-1019</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Laser Engraver #2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Laser Engraver</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>LA-1020</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Laser Engraver #3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Laser Engraver</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>LA-1021</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Wood Lathe #1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Wood Lathe</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>WO-1022</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Wood Lathe #2</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Wood Lathe</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>WO-1023</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>50</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Jointer #1</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Jointer</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>JO-1024</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>11</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Jointer #2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Jointer</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>JO-1025</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>11</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>50</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3107,168 +2740,6 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>category</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45909.41666666666</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45909.47916666666</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45910.45833333334</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45910.54166666666</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45911.375</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45911.41666666666</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45912.41666666666</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45912.47916666666</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45908.45833333334</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45908.54166666666</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Usage</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45914.54166666666</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45914.60416666666</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Confirmed</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
         </is>
       </c>
     </row>
@@ -3283,7 +2754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,121 +2797,6 @@
         <is>
           <t>hours</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45909.41666666666</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45909.47916666666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45910.45833333334</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45910.54166666666</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45911.375</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45911.41666666666</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45912.41666666666</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45912.47916666666</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45908.45833333334</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45908.54166666666</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +2810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3508,68 +2864,6 @@
           <t>date_resolved</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45910.41666666666</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Slight vibration at higher speeds.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45911.59722222222</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Blade needs sharpening.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3582,7 +2876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3614,44 +2908,6 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45870</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Initial service after commissioning</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45884</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cleaned and adjusted fences</t>
         </is>
       </c>
     </row>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -20,6 +20,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AssistanceRequests" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaintenanceRequests" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subscriptions" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscountReasons" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NotificationsLog" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>superuser</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -609,7 +612,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>superuser</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -671,7 +674,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>superuser</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,7 +685,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Finn Green</t>
+          <t>Member 6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -692,7 +695,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>finn@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -702,7 +705,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>superuser</t>
+          <t>user</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -713,7 +716,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>George Harris</t>
+          <t>Member 7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -723,7 +726,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>george@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -744,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Harry Irving</t>
+          <t>Member 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -754,7 +757,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>harry@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -775,7 +778,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isaac Johnson</t>
+          <t>Member 9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -785,7 +788,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>isaac@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -806,7 +809,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jack Kelly</t>
+          <t>Member 10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -816,7 +819,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jack@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -837,7 +840,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kai Lewis</t>
+          <t>Member 11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -847,7 +850,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kai@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -868,7 +871,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liam Mitchell</t>
+          <t>Member 12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -878,7 +881,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>liam@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,7 +902,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mason Nolan</t>
+          <t>Member 13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -909,7 +912,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>mason@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -930,7 +933,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Noah Owens</t>
+          <t>Member 14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,7 +943,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>noah@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -961,7 +964,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Oscar Parker</t>
+          <t>Member 15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -971,7 +974,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>oscar@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -992,7 +995,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Peter Quinn</t>
+          <t>Member 16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1002,7 +1005,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>peter@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1023,7 +1026,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quentin Ross</t>
+          <t>Member 17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1033,7 +1036,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>quentin@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1054,7 +1057,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Riley Smith</t>
+          <t>Member 18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1064,7 +1067,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>riley@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1085,7 +1088,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Samuel Turner</t>
+          <t>Member 19</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1095,7 +1098,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>samuel@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1116,7 +1119,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Thomas Underwood</t>
+          <t>Member 20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1126,7 +1129,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>thomas@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1147,7 +1150,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Umar Vance</t>
+          <t>Member 21</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1157,7 +1160,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>umar@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1178,7 +1181,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Victor White</t>
+          <t>Member 22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1188,7 +1191,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>victor@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1209,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>William Xu</t>
+          <t>Member 23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1219,7 +1222,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>william@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1240,7 +1243,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Yusuf Young</t>
+          <t>Member 24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1250,7 +1253,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>yusuf@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1271,7 +1274,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zachary Adams</t>
+          <t>Member 25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1281,7 +1284,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>zachary@example.com</t>
+          <t>member@example.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1338,7 +1341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,6 +1370,42 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>true</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>notify_days_before_subscription_expiry</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>notify_hours_before_service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>notify_days_maintenance_window</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1482,6 +1521,245 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>subscription_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>discount_reason</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>discount_pct</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mentor</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Admin sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(none)</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Expired sample</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>default_pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mentor</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lifetime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Workshop-only</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>messages</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1629,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1676,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45658</v>
@@ -1688,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45658</v>
@@ -1700,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45658</v>
@@ -1712,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>45658</v>
@@ -1721,10 +1999,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45658</v>
@@ -1736,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45658</v>
@@ -1745,10 +2023,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45658</v>
@@ -1760,7 +2038,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45658</v>
@@ -1769,10 +2047,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45658</v>
@@ -1781,7 +2059,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>3</v>
@@ -1793,7 +2071,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>5</v>
@@ -1805,7 +2083,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
@@ -1817,7 +2095,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
@@ -1829,7 +2107,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1841,7 +2119,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>3</v>
@@ -1856,7 +2134,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>45658</v>
@@ -1868,7 +2146,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45658</v>
@@ -1880,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45658</v>
@@ -1889,10 +2167,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>45658</v>
@@ -1901,10 +2179,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>45658</v>
@@ -1913,10 +2191,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="n">
         <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>8</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45658</v>
@@ -1928,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45658</v>
@@ -1940,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45658</v>
@@ -1964,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45658</v>
@@ -1973,10 +2251,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45658</v>
@@ -1985,10 +2263,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>45658</v>
@@ -1997,10 +2275,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45658</v>
@@ -2009,10 +2287,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45658</v>
@@ -2021,7 +2299,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -2033,7 +2311,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
@@ -2045,7 +2323,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -2057,7 +2335,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
@@ -2069,7 +2347,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -2081,7 +2359,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
@@ -2093,7 +2371,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -2105,7 +2383,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
@@ -2117,7 +2395,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -2129,7 +2407,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
@@ -2141,7 +2419,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2153,7 +2431,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
@@ -2165,7 +2443,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -2177,7 +2455,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
@@ -2189,7 +2467,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -2201,7 +2479,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
@@ -2213,7 +2491,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -2225,7 +2503,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
@@ -2237,7 +2515,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2249,7 +2527,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -2261,7 +2539,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -2273,7 +2551,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
@@ -2285,7 +2563,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2297,7 +2575,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
@@ -2309,7 +2587,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2321,7 +2599,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
@@ -2333,7 +2611,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2345,7 +2623,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
@@ -2357,7 +2635,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2369,7 +2647,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -2381,7 +2659,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2393,7 +2671,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
@@ -2405,7 +2683,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2417,7 +2695,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
@@ -2426,54 +2704,6 @@
         <v>45658</v>
       </c>
       <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>25</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>25</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>26</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>26</v>
-      </c>
-      <c r="B69" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45658</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2698,7 +2928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2740,6 +2970,114 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45908.375</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45909.375</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45910.375</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45914.54166666666</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45914.60416666666</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
         </is>
       </c>
     </row>
@@ -2754,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2797,6 +3135,75 @@
         <is>
           <t>hours</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45908.375</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45909.375</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45910.375</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +3283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,6 +3315,25 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Initial service</t>
         </is>
       </c>
     </row>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -498,10 +498,8 @@
           <t>John Benson</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0400001000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>400001000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -533,10 +531,8 @@
           <t>Alex Brown</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0400001001</t>
-        </is>
+      <c r="C3" t="n">
+        <v>400001001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -564,10 +560,8 @@
           <t>Ben Carter</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0400001002</t>
-        </is>
+      <c r="C4" t="n">
+        <v>400001002</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -595,10 +589,8 @@
           <t>Charlie Davis</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0400001003</t>
-        </is>
+      <c r="C5" t="n">
+        <v>400001003</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -626,10 +618,8 @@
           <t>Daniel Evans</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0400001004</t>
-        </is>
+      <c r="C6" t="n">
+        <v>400001004</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -657,10 +647,8 @@
           <t>Ethan Foster</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0400001005</t>
-        </is>
+      <c r="C7" t="n">
+        <v>400001005</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -688,10 +676,8 @@
           <t>Member 6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0400001006</t>
-        </is>
+      <c r="C8" t="n">
+        <v>400001006</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -719,10 +705,8 @@
           <t>Member 7</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0400001007</t>
-        </is>
+      <c r="C9" t="n">
+        <v>400001007</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -750,10 +734,8 @@
           <t>Member 8</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0400001008</t>
-        </is>
+      <c r="C10" t="n">
+        <v>400001008</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -781,10 +763,8 @@
           <t>Member 9</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0400001009</t>
-        </is>
+      <c r="C11" t="n">
+        <v>400001009</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -812,10 +792,8 @@
           <t>Member 10</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0400001010</t>
-        </is>
+      <c r="C12" t="n">
+        <v>400001010</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -843,10 +821,8 @@
           <t>Member 11</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0400001011</t>
-        </is>
+      <c r="C13" t="n">
+        <v>400001011</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -874,10 +850,8 @@
           <t>Member 12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0400001012</t>
-        </is>
+      <c r="C14" t="n">
+        <v>400001012</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -905,10 +879,8 @@
           <t>Member 13</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0400001013</t>
-        </is>
+      <c r="C15" t="n">
+        <v>400001013</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -936,10 +908,8 @@
           <t>Member 14</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0400001014</t>
-        </is>
+      <c r="C16" t="n">
+        <v>400001014</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -967,10 +937,8 @@
           <t>Member 15</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0400001015</t>
-        </is>
+      <c r="C17" t="n">
+        <v>400001015</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -998,10 +966,8 @@
           <t>Member 16</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0400001016</t>
-        </is>
+      <c r="C18" t="n">
+        <v>400001016</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1029,10 +995,8 @@
           <t>Member 17</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0400001017</t>
-        </is>
+      <c r="C19" t="n">
+        <v>400001017</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1060,10 +1024,8 @@
           <t>Member 18</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0400001018</t>
-        </is>
+      <c r="C20" t="n">
+        <v>400001018</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1091,10 +1053,8 @@
           <t>Member 19</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0400001019</t>
-        </is>
+      <c r="C21" t="n">
+        <v>400001019</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1122,10 +1082,8 @@
           <t>Member 20</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0400001020</t>
-        </is>
+      <c r="C22" t="n">
+        <v>400001020</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1153,10 +1111,8 @@
           <t>Member 21</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0400001021</t>
-        </is>
+      <c r="C23" t="n">
+        <v>400001021</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1184,10 +1140,8 @@
           <t>Member 22</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0400001022</t>
-        </is>
+      <c r="C24" t="n">
+        <v>400001022</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1215,10 +1169,8 @@
           <t>Member 23</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0400001023</t>
-        </is>
+      <c r="C25" t="n">
+        <v>400001023</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1246,10 +1198,8 @@
           <t>Member 24</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0400001024</t>
-        </is>
+      <c r="C26" t="n">
+        <v>400001024</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1277,10 +1227,8 @@
           <t>Member 25</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0400001025</t>
-        </is>
+      <c r="C27" t="n">
+        <v>400001025</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1527,7 +1475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,6 +1529,16 @@
           <t>notes</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>payment_date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>auto_renew_months</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1613,6 +1571,10 @@
         <is>
           <t>Admin sample</t>
         </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1646,6 +1608,10 @@
         <is>
           <t>Expired sample</t>
         </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -23,6 +23,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Subscriptions" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscountReasons" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NotificationsLog" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserEvents" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Newsletters" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +490,16 @@
           <t>password</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>birth_date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>newsletter_opt_in</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -521,6 +533,12 @@
           <t>nesnob2025</t>
         </is>
       </c>
+      <c r="H2" s="2" t="n">
+        <v>19636</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -550,6 +568,12 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" s="2" t="n">
+        <v>25289</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -579,6 +603,12 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" s="2" t="n">
+        <v>23810</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -608,6 +638,12 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" s="2" t="n">
+        <v>23873</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -637,6 +673,12 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" s="2" t="n">
+        <v>18942</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -666,6 +708,12 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" s="2" t="n">
+        <v>18484</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -695,6 +743,12 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" s="2" t="n">
+        <v>22763</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -724,6 +778,12 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" s="2" t="n">
+        <v>26095</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -753,6 +813,12 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" s="2" t="n">
+        <v>26162</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -782,6 +848,12 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" s="2" t="n">
+        <v>24078</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -811,6 +883,12 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" s="2" t="n">
+        <v>23716</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -840,6 +918,12 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" s="2" t="n">
+        <v>22594</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -869,6 +953,10 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -898,6 +986,10 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -927,6 +1019,10 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -956,6 +1052,10 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -985,6 +1085,10 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1014,6 +1118,10 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1043,6 +1151,10 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1072,6 +1184,10 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1101,6 +1217,10 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1130,6 +1250,10 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1159,6 +1283,10 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1188,6 +1316,10 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1217,6 +1349,10 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1246,6 +1382,10 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1289,7 +1429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,6 +1496,14 @@
           <t>7</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>app_public_url</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1726,6 +1874,485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>event_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>event_date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mentor Award</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mentor Award</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mentor Award</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Initial onboarding</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Workshop Only</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>newsletter_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>filename</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2894,7 +3521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,6 +3671,2841 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45908.375</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45908.5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45908.58333333334</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45908.625</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45908.66666666666</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45908.39583333334</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45908.5</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45908.58333333334</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45908.66666666666</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45909.45833333334</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45909.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45909.54166666666</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45909.625</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45909.66666666666</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45909.70833333334</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45909.45833333334</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45909.52083333334</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45909.375</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45909.47916666666</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45909.39583333334</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45909.47916666666</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45910.39583333334</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45910.5</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45910.5625</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45910.625</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45910.54166666666</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45910.54166666666</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45910.625</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45910.39583333334</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>15</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45911.39583333334</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>12</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45911.54166666666</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45911.375</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45911.47916666666</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>21</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>18</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45911.45833333334</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45911.375</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45911.47916666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>21</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45911.5625</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45911.66666666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45912.45833333334</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45912.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45912.39583333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45912.47916666666</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>23</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45912.45833333334</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45912.52083333334</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45912.39583333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45912.5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45912.54166666666</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45912.58333333334</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45912.625</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45912.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45912.54166666666</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45912.60416666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45912.54166666666</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45912.60416666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45890.45833333334</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45890.54166666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45889.5</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>25</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45890.45833333334</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45890.5</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>21</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45886.375</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45886.41666666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45887.58333333334</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45887.66666666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45886.45833333334</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45886.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>18</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45889.58333333334</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45889.66666666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>22</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45886.58333333334</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45886.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45876.45833333334</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45876.54166666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45874.45833333334</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45874.5</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45872.58333333334</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45872.66666666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>21</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45873.58333333334</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45873.625</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45874.58333333334</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45874.625</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>20</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45874.375</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45874.41666666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45874.45833333334</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45874.5</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45874.45833333334</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45874.5</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45859.58333333334</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45859.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45861.375</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45861.41666666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45861.58333333334</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45861.625</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45862.58333333334</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45862.66666666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>23</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45862.58333333334</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45862.625</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45860.45833333334</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45860.54166666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45862.45833333334</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45862.5</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45859.375</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45859.45833333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45848.58333333334</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45848.625</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>23</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45845.375</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45845.41666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45844.375</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45844.41666666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45846.375</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45846.41666666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>24</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45847.375</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45847.41666666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45848.58333333334</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45848.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45847.45833333334</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45847.5</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>12</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45844.58333333334</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45844.66666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>24</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45833.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45830.58333333334</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45830.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>26</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45833.58333333334</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45833.66666666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45830.375</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45830.41666666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45834.45833333334</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45834.5</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45831.45833333334</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45831.54166666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45830.45833333334</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45830.5</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>25</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45834.375</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45834.41666666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>16</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45817.375</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45817.45833333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45819.375</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45819.45833333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>13</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45817.45833333334</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45817.5</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45818.45833333334</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45818.54166666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45820.58333333334</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45820.66666666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45817.45833333334</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45817.5</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>24</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45820.58333333334</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45820.625</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>19</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45818.375</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45818.41666666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Usage</t>
         </is>
       </c>
     </row>
@@ -3058,7 +6520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3169,6 +6631,2375 @@
         <v>45910.41666666666</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45908.375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45908.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45908.58333333334</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45908.625</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45908.66666666666</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45908.39583333334</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45908.5</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45908.58333333334</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45908.66666666666</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45908.33333333334</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45908.41666666666</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45908.45833333334</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45908.54166666666</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45909.45833333334</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45909.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45909.54166666666</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45909.625</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45909.66666666666</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45909.70833333334</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45909.45833333334</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45909.52083333334</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45909.375</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45909.47916666666</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45909.33333333334</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45909.39583333334</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45909.41666666666</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45909.47916666666</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45910.39583333334</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45910.5</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45910.5625</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45910.625</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>31</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45910.54166666666</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45910.54166666666</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45910.58333333334</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45910.625</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45910.33333333334</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45910.39583333334</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45910.41666666666</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45910.45833333334</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45911.39583333334</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>39</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45911.54166666666</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" t="n">
+        <v>22</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45911.375</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>23</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45911.47916666666</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>43</v>
+      </c>
+      <c r="C43" t="n">
+        <v>21</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44</v>
+      </c>
+      <c r="C44" t="n">
+        <v>21</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>45</v>
+      </c>
+      <c r="C45" t="n">
+        <v>18</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45911.45833333334</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>46</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45911.33333333334</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45911.375</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>47</v>
+      </c>
+      <c r="C47" t="n">
+        <v>13</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45911.41666666666</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45911.47916666666</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>48</v>
+      </c>
+      <c r="C48" t="n">
+        <v>21</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45911.5</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45911.5625</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>49</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45911.58333333334</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45911.66666666666</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>50</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45912.45833333334</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45912.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>52</v>
+      </c>
+      <c r="C52" t="n">
+        <v>13</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45912.39583333334</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>53</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45912.47916666666</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54</v>
+      </c>
+      <c r="C54" t="n">
+        <v>23</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>55</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45912.45833333334</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45912.52083333334</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>56</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45912.33333333334</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45912.39583333334</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>57</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45912.41666666666</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45912.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>58</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45912.54166666666</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45912.58333333334</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>59</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45912.625</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45912.66666666666</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62</v>
+      </c>
+      <c r="B60" t="n">
+        <v>62</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45890.45833333334</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45890.54166666666</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63</v>
+      </c>
+      <c r="B61" t="n">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45889.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45890.45833333334</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45890.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65</v>
+      </c>
+      <c r="B63" t="n">
+        <v>65</v>
+      </c>
+      <c r="C63" t="n">
+        <v>21</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45886.375</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45886.41666666666</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66</v>
+      </c>
+      <c r="B64" t="n">
+        <v>66</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45887.58333333334</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45887.66666666666</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>67</v>
+      </c>
+      <c r="B65" t="n">
+        <v>67</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45886.45833333334</v>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45886.54166666666</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>68</v>
+      </c>
+      <c r="B66" t="n">
+        <v>68</v>
+      </c>
+      <c r="C66" t="n">
+        <v>18</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45889.58333333334</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45889.66666666666</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>69</v>
+      </c>
+      <c r="B67" t="n">
+        <v>69</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45886.58333333334</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45886.625</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>70</v>
+      </c>
+      <c r="B68" t="n">
+        <v>70</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45876.45833333334</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45876.54166666666</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>71</v>
+      </c>
+      <c r="B69" t="n">
+        <v>71</v>
+      </c>
+      <c r="C69" t="n">
+        <v>15</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45874.45833333334</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45874.5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>72</v>
+      </c>
+      <c r="B70" t="n">
+        <v>72</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45872.58333333334</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45872.66666666666</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>73</v>
+      </c>
+      <c r="B71" t="n">
+        <v>73</v>
+      </c>
+      <c r="C71" t="n">
+        <v>21</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45873.58333333334</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45873.625</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>74</v>
+      </c>
+      <c r="B72" t="n">
+        <v>74</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45874.58333333334</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45874.625</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>75</v>
+      </c>
+      <c r="B73" t="n">
+        <v>75</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45874.375</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45874.41666666666</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>76</v>
+      </c>
+      <c r="B74" t="n">
+        <v>76</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45874.45833333334</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45874.5</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>77</v>
+      </c>
+      <c r="B75" t="n">
+        <v>77</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45874.45833333334</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45874.5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>78</v>
+      </c>
+      <c r="B76" t="n">
+        <v>78</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45859.58333333334</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45859.625</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>79</v>
+      </c>
+      <c r="B77" t="n">
+        <v>79</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45861.375</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45861.41666666666</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>80</v>
+      </c>
+      <c r="B78" t="n">
+        <v>80</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45861.58333333334</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45861.625</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>81</v>
+      </c>
+      <c r="B79" t="n">
+        <v>81</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45862.58333333334</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45862.66666666666</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>82</v>
+      </c>
+      <c r="B80" t="n">
+        <v>82</v>
+      </c>
+      <c r="C80" t="n">
+        <v>23</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45862.58333333334</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>45862.625</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>83</v>
+      </c>
+      <c r="B81" t="n">
+        <v>83</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45860.45833333334</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45860.54166666666</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>84</v>
+      </c>
+      <c r="B82" t="n">
+        <v>84</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45862.45833333334</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45862.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>85</v>
+      </c>
+      <c r="B83" t="n">
+        <v>85</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45859.375</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45859.45833333334</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>86</v>
+      </c>
+      <c r="B84" t="n">
+        <v>86</v>
+      </c>
+      <c r="C84" t="n">
+        <v>19</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45848.58333333334</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45848.625</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>87</v>
+      </c>
+      <c r="B85" t="n">
+        <v>87</v>
+      </c>
+      <c r="C85" t="n">
+        <v>23</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45845.375</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>45845.41666666666</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>88</v>
+      </c>
+      <c r="B86" t="n">
+        <v>88</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45844.375</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>45844.41666666666</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n">
+        <v>89</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45846.375</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45846.41666666666</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n">
+        <v>90</v>
+      </c>
+      <c r="C88" t="n">
+        <v>24</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45847.375</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45847.41666666666</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n">
+        <v>91</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45848.58333333334</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45848.66666666666</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n">
+        <v>92</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45847.45833333334</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>45847.5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>93</v>
+      </c>
+      <c r="B91" t="n">
+        <v>93</v>
+      </c>
+      <c r="C91" t="n">
+        <v>12</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45844.58333333334</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>45844.66666666666</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>94</v>
+      </c>
+      <c r="B92" t="n">
+        <v>94</v>
+      </c>
+      <c r="C92" t="n">
+        <v>24</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>45833.54166666666</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>95</v>
+      </c>
+      <c r="B93" t="n">
+        <v>95</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45830.58333333334</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>45830.625</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>96</v>
+      </c>
+      <c r="B94" t="n">
+        <v>96</v>
+      </c>
+      <c r="C94" t="n">
+        <v>26</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45833.58333333334</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45833.66666666666</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>97</v>
+      </c>
+      <c r="B95" t="n">
+        <v>97</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45830.375</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>45830.41666666666</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>98</v>
+      </c>
+      <c r="B96" t="n">
+        <v>98</v>
+      </c>
+      <c r="C96" t="n">
+        <v>14</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45834.45833333334</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>45834.5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>99</v>
+      </c>
+      <c r="B97" t="n">
+        <v>99</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45831.45833333334</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>45831.54166666666</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>100</v>
+      </c>
+      <c r="B98" t="n">
+        <v>100</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45830.45833333334</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>45830.5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>101</v>
+      </c>
+      <c r="B99" t="n">
+        <v>101</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45834.375</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>45834.41666666666</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>102</v>
+      </c>
+      <c r="B100" t="n">
+        <v>102</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45817.375</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>45817.45833333334</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>103</v>
+      </c>
+      <c r="B101" t="n">
+        <v>103</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45819.375</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45819.45833333334</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>104</v>
+      </c>
+      <c r="B102" t="n">
+        <v>104</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45817.45833333334</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>45817.5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>105</v>
+      </c>
+      <c r="B103" t="n">
+        <v>105</v>
+      </c>
+      <c r="C103" t="n">
+        <v>14</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45818.45833333334</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>45818.54166666666</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>106</v>
+      </c>
+      <c r="B104" t="n">
+        <v>106</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45820.58333333334</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>45820.66666666666</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>107</v>
+      </c>
+      <c r="B105" t="n">
+        <v>107</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45817.45833333334</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>45817.5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>108</v>
+      </c>
+      <c r="B106" t="n">
+        <v>108</v>
+      </c>
+      <c r="C106" t="n">
+        <v>24</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45820.58333333334</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>45820.625</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>109</v>
+      </c>
+      <c r="B107" t="n">
+        <v>109</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45818.375</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>45818.41666666666</v>
+      </c>
+      <c r="G107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3183,7 +9014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3236,6 +9067,216 @@
         <is>
           <t>date_resolved</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Auto-generated sample issue</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Auto-generated sample issue</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Auto-generated sample issue</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45871</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Auto-generated sample issue</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45886</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Auto-generated sample issue</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Auto-generated sample issue</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45772</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +9290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,6 +9341,234 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Initial service</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="D8" t="n">
+        <v>70</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Periodic maintenance</t>
         </is>
       </c>
     </row>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -25,6 +25,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NotificationsLog" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserEvents" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Newsletters" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProjectSubmissions" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpotlightSubmissions" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClubUpdates" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notices" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MeetingInfo" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Templates" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +506,11 @@
           <t>newsletter_opt_in</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>joined_date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +549,9 @@
       </c>
       <c r="I2" t="b">
         <v>1</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>45794</v>
       </c>
     </row>
     <row r="3">
@@ -574,6 +588,9 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
+      <c r="J3" s="2" t="n">
+        <v>45374</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -609,6 +626,9 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
+      <c r="J4" s="2" t="n">
+        <v>45734</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -644,6 +664,9 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
+      <c r="J5" s="2" t="n">
+        <v>45104</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -679,6 +702,9 @@
       <c r="I6" t="b">
         <v>1</v>
       </c>
+      <c r="J6" s="2" t="n">
+        <v>45374</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -714,6 +740,9 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
+      <c r="J7" s="2" t="n">
+        <v>45704</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -749,6 +778,9 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
+      <c r="J8" s="2" t="n">
+        <v>45824</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -784,6 +816,9 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
+      <c r="J9" s="2" t="n">
+        <v>45164</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -819,6 +854,9 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
+      <c r="J10" s="2" t="n">
+        <v>44864</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -854,6 +892,9 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
+      <c r="J11" s="2" t="n">
+        <v>44834</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -889,6 +930,9 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
+      <c r="J12" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -924,6 +968,9 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
+      <c r="J13" s="2" t="n">
+        <v>45254</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -953,9 +1000,14 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" s="2" t="n">
+        <v>15770</v>
+      </c>
       <c r="I14" t="b">
         <v>1</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>45254</v>
       </c>
     </row>
     <row r="15">
@@ -986,9 +1038,14 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" s="2" t="n">
+        <v>27568</v>
+      </c>
       <c r="I15" t="b">
         <v>1</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>45434</v>
       </c>
     </row>
     <row r="16">
@@ -1019,9 +1076,14 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" s="2" t="n">
+        <v>18277</v>
+      </c>
       <c r="I16" t="b">
         <v>1</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>45734</v>
       </c>
     </row>
     <row r="17">
@@ -1052,9 +1114,14 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" s="2" t="n">
+        <v>28674</v>
+      </c>
       <c r="I17" t="b">
         <v>1</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>45884</v>
       </c>
     </row>
     <row r="18">
@@ -1085,9 +1152,14 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" s="2" t="n">
+        <v>22265</v>
+      </c>
       <c r="I18" t="b">
         <v>1</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45704</v>
       </c>
     </row>
     <row r="19">
@@ -1118,9 +1190,14 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" s="2" t="n">
+        <v>15394</v>
+      </c>
       <c r="I19" t="b">
         <v>1</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45614</v>
       </c>
     </row>
     <row r="20">
@@ -1151,9 +1228,14 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" s="2" t="n">
+        <v>17542</v>
+      </c>
       <c r="I20" t="b">
         <v>1</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45074</v>
       </c>
     </row>
     <row r="21">
@@ -1184,9 +1266,14 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" s="2" t="n">
+        <v>27981</v>
+      </c>
       <c r="I21" t="b">
         <v>1</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>44984</v>
       </c>
     </row>
     <row r="22">
@@ -1217,9 +1304,14 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" s="2" t="n">
+        <v>15472</v>
+      </c>
       <c r="I22" t="b">
         <v>1</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>44894</v>
       </c>
     </row>
     <row r="23">
@@ -1250,9 +1342,14 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" s="2" t="n">
+        <v>25685</v>
+      </c>
       <c r="I23" t="b">
         <v>1</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>44894</v>
       </c>
     </row>
     <row r="24">
@@ -1283,9 +1380,14 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" s="2" t="n">
+        <v>27912</v>
+      </c>
       <c r="I24" t="b">
         <v>1</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>45134</v>
       </c>
     </row>
     <row r="25">
@@ -1316,9 +1418,14 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" s="2" t="n">
+        <v>29843</v>
+      </c>
       <c r="I25" t="b">
         <v>1</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>44864</v>
       </c>
     </row>
     <row r="26">
@@ -1349,9 +1456,14 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" s="2" t="n">
+        <v>29545</v>
+      </c>
       <c r="I26" t="b">
         <v>1</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>44954</v>
       </c>
     </row>
     <row r="27">
@@ -1382,9 +1494,14 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" s="2" t="n">
+        <v>26982</v>
+      </c>
       <c r="I27" t="b">
         <v>1</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45194</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1504,6 +1621,54 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>newsletter_editor_name</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John Benson</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>newsletter_editor_email</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>newsletter_issue_day</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>last_issue_date</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1880,7 +2045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2306,6 +2471,1554 @@
         <v>45444</v>
       </c>
       <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Club Anniversary</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45710</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mentor Award</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Lathe Certification</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lathe Certification</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mentor Award</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Club Anniversary</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45143</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Lathe Certification</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Lathe Certification</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45703</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45115</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Lathe Certification</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Club Anniversary</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45521</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>15</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Club Anniversary</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45528</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>18</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Safety Induction</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Lathe Certification</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>21</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>22</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mentor Award</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>23</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>23</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>24</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Club Anniversary</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>25</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Exhibition Entry</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>26</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>First Bowl!</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>26</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Club Anniversary</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45714</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>26</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Anniversary</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Workshop Certificate</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Get well</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Workshop Certificate</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Teaching session</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Get well</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>8</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>8</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Anniversary</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Anniversary</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45864</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Workshop Certificate</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>12</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Anniversary</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45865</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>13</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>13</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Workshop Certificate</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Teaching session</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>14</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>15</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Competition Win</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Teaching session</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Sample entry</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2353,6 +4066,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>submission_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>image_file</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lidded box</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" s="2" t="n">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lidded box</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bandsawn box</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bandsawn box</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" s="2" t="n">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pen set</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Pepper mill</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pen set</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" s="2" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Honey dipper</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" s="2" t="n">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Honey dipper</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" s="2" t="n">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lidded box</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" s="2" t="n">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Honey dipper</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" s="2" t="n">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Segmented vase</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sample project submission</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" s="2" t="n">
+        <v>45890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2486,6 +4514,344 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>Jointer</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>submission_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>image_file</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>update_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>New extractor installed</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dust extraction upgraded on bay 2.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" s="2" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lathe #1 tailstock serviced</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Smoother action; please report any issues.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" s="2" t="n">
+        <v>45909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>notice_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Working bee</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bring gloves; benches re-oil this Saturday.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" s="2" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Raffle</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Spalted redgum blank up for grabs.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" s="2" t="n">
+        <v>45934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>meeting_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>agenda_link</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rsvp_link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Monthly Club Night</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adamstown Men’s Shed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>newsletter_prompt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(set in app)</t>
         </is>
       </c>
     </row>

--- a/data/db.xlsx
+++ b/data/db.xlsx
@@ -27,9 +27,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClubUpdates" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notices" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MeetingInfo" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpotlightSubmissions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProjectSubmissions" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpotlightSubmissions" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProjectSubmissions" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NotificationsLog" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
@@ -6180,6 +6180,209 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>newsletter_editor_name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John Benson</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>newsletter_editor_email</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>john@example.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>newsletter_issue_day</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>last_issue_date</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>app_public_url</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>org_name</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Woodturners of the Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>website_url</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>postal_address</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>logo_url</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>approve_url</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>edit_url</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>market_stall_eoi_link</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>link_upload</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>link_mentorship</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>link_join</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>link_rsvp</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>lock_booking_to_member</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>active_logo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>logo1.png</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6255,7 +6458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6321,197 +6524,6 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>45912</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>newsletter_editor_name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>John Benson</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>newsletter_editor_email</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>john@example.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>newsletter_issue_day</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>last_issue_date</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-08-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>app_public_url</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>org_name</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Woodturners of the Hunter</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>website_url</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>postal_address</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>logo_url</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>approve_url</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>edit_url</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>market_stall_eoi_link</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>link_upload</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>link_mentorship</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>link_join</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>link_rsvp</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>active_logo</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>logo1.png</t>
-        </is>
       </c>
     </row>
   </sheetData>
